--- a/00_はじめてのエクセル.xlsx
+++ b/00_はじめてのエクセル.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="１月" sheetId="1" r:id="rId1"/>
+    <sheet name="２月" sheetId="3" r:id="rId2"/>
+    <sheet name="３月" sheetId="4" r:id="rId3"/>
+    <sheet name="集計" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>会議予定</t>
     <rPh sb="0" eb="4">
@@ -241,6 +244,83 @@
     <t>福岡出張</t>
     <rPh sb="0" eb="4">
       <t>フクオカシュッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>● 平日シフト</t>
+    <rPh sb="2" eb="4">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>● 休日シフト</t>
+    <rPh sb="2" eb="4">
+      <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -593,13 +673,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,8 +730,14 @@
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -669,8 +761,26 @@
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C4">
         <f>C2+C3</f>
         <v>121.00000000000001</v>
@@ -694,8 +804,26 @@
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
         <v>23</v>
       </c>
@@ -712,18 +840,45 @@
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -737,7 +892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -748,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -765,7 +920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -776,12 +931,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -795,7 +950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -809,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -884,4 +1039,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>